--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Arf1-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Arf1-Insr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>68.392882</v>
+        <v>20.598495</v>
       </c>
       <c r="H2">
-        <v>205.178646</v>
+        <v>61.795485</v>
       </c>
       <c r="I2">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="J2">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.444833</v>
+        <v>7.655977</v>
       </c>
       <c r="N2">
-        <v>55.33449900000001</v>
+        <v>22.967931</v>
       </c>
       <c r="O2">
-        <v>0.529296397589589</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="P2">
-        <v>0.5292963975895891</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="Q2">
-        <v>1261.495286878706</v>
+        <v>157.701603954615</v>
       </c>
       <c r="R2">
-        <v>11353.45758190835</v>
+        <v>1419.314435591535</v>
       </c>
       <c r="S2">
-        <v>0.2020325738026728</v>
+        <v>0.05608976326406188</v>
       </c>
       <c r="T2">
-        <v>0.2020325738026728</v>
+        <v>0.05608976326406188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>68.392882</v>
+        <v>20.598495</v>
       </c>
       <c r="H3">
-        <v>205.178646</v>
+        <v>61.795485</v>
       </c>
       <c r="I3">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="J3">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>24.086304</v>
       </c>
       <c r="O3">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="P3">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="Q3">
-        <v>549.110582429376</v>
+        <v>165.38053750416</v>
       </c>
       <c r="R3">
-        <v>4941.995241864383</v>
+        <v>1488.42483753744</v>
       </c>
       <c r="S3">
-        <v>0.08794184601750188</v>
+        <v>0.0588209312047405</v>
       </c>
       <c r="T3">
-        <v>0.08794184601750191</v>
+        <v>0.0588209312047405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>68.392882</v>
+        <v>20.598495</v>
       </c>
       <c r="H4">
-        <v>205.178646</v>
+        <v>61.795485</v>
       </c>
       <c r="I4">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="J4">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.374233</v>
+        <v>9.879524666666667</v>
       </c>
       <c r="N4">
-        <v>25.122699</v>
+        <v>29.638574</v>
       </c>
       <c r="O4">
-        <v>0.2403085655194523</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="P4">
-        <v>0.2403085655194524</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="Q4">
-        <v>572.737929409506</v>
+        <v>203.50333944871</v>
       </c>
       <c r="R4">
-        <v>5154.641364685554</v>
+        <v>1831.53005503839</v>
       </c>
       <c r="S4">
-        <v>0.09172584249547165</v>
+        <v>0.07238007633967464</v>
       </c>
       <c r="T4">
-        <v>0.09172584249547167</v>
+        <v>0.07238007633967464</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>60.20577233333333</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H5">
         <v>180.617317</v>
       </c>
       <c r="I5">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512287</v>
       </c>
       <c r="J5">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512288</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.444833</v>
+        <v>7.655977</v>
       </c>
       <c r="N5">
-        <v>55.33449900000001</v>
+        <v>22.967931</v>
       </c>
       <c r="O5">
-        <v>0.529296397589589</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="P5">
-        <v>0.5292963975895891</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="Q5">
-        <v>1110.485416324354</v>
+        <v>460.9340082512364</v>
       </c>
       <c r="R5">
-        <v>9994.368746919185</v>
+        <v>4148.406074261127</v>
       </c>
       <c r="S5">
-        <v>0.1778478518024885</v>
+        <v>0.1639404974638523</v>
       </c>
       <c r="T5">
-        <v>0.1778478518024885</v>
+        <v>0.1639404974638523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>60.20577233333333</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H6">
         <v>180.617317</v>
       </c>
       <c r="I6">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512287</v>
       </c>
       <c r="J6">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512288</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>24.086304</v>
       </c>
       <c r="O6">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="P6">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="Q6">
-        <v>483.3781783251519</v>
+        <v>483.378178325152</v>
       </c>
       <c r="R6">
         <v>4350.403604926368</v>
       </c>
       <c r="S6">
-        <v>0.07741458767452986</v>
+        <v>0.1719232202424143</v>
       </c>
       <c r="T6">
-        <v>0.07741458767452987</v>
+        <v>0.1719232202424143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.20577233333333</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H7">
         <v>180.617317</v>
       </c>
       <c r="I7">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512287</v>
       </c>
       <c r="J7">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512288</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.374233</v>
+        <v>9.879524666666667</v>
       </c>
       <c r="N7">
-        <v>25.122699</v>
+        <v>29.638574</v>
       </c>
       <c r="O7">
-        <v>0.2403085655194523</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="P7">
-        <v>0.2403085655194524</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="Q7">
-        <v>504.177165464287</v>
+        <v>594.8044128428843</v>
       </c>
       <c r="R7">
-        <v>4537.594489178583</v>
+        <v>5353.239715585958</v>
       </c>
       <c r="S7">
-        <v>0.08074561312338846</v>
+        <v>0.2115542129449622</v>
       </c>
       <c r="T7">
-        <v>0.08074561312338846</v>
+        <v>0.2115542129449622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.58089766666667</v>
+        <v>29.17709966666666</v>
       </c>
       <c r="H8">
-        <v>151.742693</v>
+        <v>87.53129899999999</v>
       </c>
       <c r="I8">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="J8">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.444833</v>
+        <v>7.655977</v>
       </c>
       <c r="N8">
-        <v>55.33449900000001</v>
+        <v>22.967931</v>
       </c>
       <c r="O8">
-        <v>0.529296397589589</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="P8">
-        <v>0.5292963975895891</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="Q8">
-        <v>932.9562104517564</v>
+        <v>223.3792039747077</v>
       </c>
       <c r="R8">
-        <v>8396.605894065808</v>
+        <v>2010.412835772369</v>
       </c>
       <c r="S8">
-        <v>0.1494159719844277</v>
+        <v>0.0794493293337825</v>
       </c>
       <c r="T8">
-        <v>0.1494159719844278</v>
+        <v>0.0794493293337825</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.58089766666667</v>
+        <v>29.17709966666666</v>
       </c>
       <c r="H9">
-        <v>151.742693</v>
+        <v>87.53129899999999</v>
       </c>
       <c r="I9">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="J9">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>24.086304</v>
       </c>
       <c r="O9">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="P9">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="Q9">
-        <v>406.1022925974079</v>
+        <v>234.256164136544</v>
       </c>
       <c r="R9">
-        <v>3654.920633376672</v>
+        <v>2108.305477228896</v>
       </c>
       <c r="S9">
-        <v>0.06503860319892675</v>
+        <v>0.08331794008479051</v>
       </c>
       <c r="T9">
-        <v>0.06503860319892678</v>
+        <v>0.08331794008479051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.58089766666667</v>
+        <v>29.17709966666666</v>
       </c>
       <c r="H10">
-        <v>151.742693</v>
+        <v>87.53129899999999</v>
       </c>
       <c r="I10">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="J10">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.374233</v>
+        <v>9.879524666666667</v>
       </c>
       <c r="N10">
-        <v>25.122699</v>
+        <v>29.638574</v>
       </c>
       <c r="O10">
-        <v>0.2403085655194523</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="P10">
-        <v>0.2403085655194524</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="Q10">
-        <v>423.576222409823</v>
+        <v>288.2558758586251</v>
       </c>
       <c r="R10">
-        <v>3812.186001688407</v>
+        <v>2594.302882727626</v>
       </c>
       <c r="S10">
-        <v>0.06783710990059223</v>
+        <v>0.1025240291217212</v>
       </c>
       <c r="T10">
-        <v>0.06783710990059225</v>
+        <v>0.1025240291217212</v>
       </c>
     </row>
   </sheetData>
